--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Kng1-Gpr135.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Kng1-Gpr135.xlsx
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.06632500000000001</v>
+        <v>0.1204806666666667</v>
       </c>
       <c r="N2">
-        <v>0.198975</v>
+        <v>0.361442</v>
       </c>
       <c r="O2">
-        <v>0.01720166681752436</v>
+        <v>0.0341140812585293</v>
       </c>
       <c r="P2">
-        <v>0.01720166681752435</v>
+        <v>0.03411408125852929</v>
       </c>
       <c r="Q2">
-        <v>0.03010328148333334</v>
+        <v>0.05468320274355556</v>
       </c>
       <c r="R2">
-        <v>0.27092953335</v>
+        <v>0.492148824692</v>
       </c>
       <c r="S2">
-        <v>0.01720166681752436</v>
+        <v>0.0341140812585293</v>
       </c>
       <c r="T2">
-        <v>0.01720166681752435</v>
+        <v>0.03411408125852929</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>8.618657000000001</v>
       </c>
       <c r="O3">
-        <v>0.7450949422215053</v>
+        <v>0.8134571113412176</v>
       </c>
       <c r="P3">
-        <v>0.7450949422215052</v>
+        <v>0.8134571113412176</v>
       </c>
       <c r="Q3">
         <v>1.303931939586889</v>
@@ -632,10 +632,10 @@
         <v>11.735387456282</v>
       </c>
       <c r="S3">
-        <v>0.7450949422215053</v>
+        <v>0.8134571113412176</v>
       </c>
       <c r="T3">
-        <v>0.7450949422215052</v>
+        <v>0.8134571113412176</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9165203333333333</v>
+        <v>0.5383326666666667</v>
       </c>
       <c r="N4">
-        <v>2.749561</v>
+        <v>1.614998</v>
       </c>
       <c r="O4">
-        <v>0.2377033909609704</v>
+        <v>0.1524288074002532</v>
       </c>
       <c r="P4">
-        <v>0.2377033909609703</v>
+        <v>0.1524288074002531</v>
       </c>
       <c r="Q4">
-        <v>0.4159859717984444</v>
+        <v>0.2443359185275556</v>
       </c>
       <c r="R4">
-        <v>3.743873746186</v>
+        <v>2.199023266748</v>
       </c>
       <c r="S4">
-        <v>0.2377033909609704</v>
+        <v>0.1524288074002532</v>
       </c>
       <c r="T4">
-        <v>0.2377033909609703</v>
+        <v>0.1524288074002531</v>
       </c>
     </row>
   </sheetData>
